--- a/swings/2021-11-22/BINANCE_SPOT_SAND_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_SAND_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>3.8732</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>4.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +831,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>4.0661</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>4.1396</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>4.0071</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>4.1486</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>4.019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>4.0794</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>3.909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1351,6 +1389,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>3.9849</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1403,6 +1444,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1457,6 +1499,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>3.9026</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1511,6 +1556,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>3.9445</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1611,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>3.8183</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1723,6 +1776,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>3.9052</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1775,6 +1831,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1829,6 +1886,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>3.8616</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1881,6 +1941,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1935,6 +1996,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>3.9183</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1989,6 +2053,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>3.8738</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2043,6 +2110,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2095,6 +2165,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2149,6 +2220,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>3.7216</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2201,6 +2275,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2253,6 +2328,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2305,6 +2381,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2357,6 +2434,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2411,6 +2489,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2465,6 +2546,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2517,6 +2601,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2654,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2621,6 +2707,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2760,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2727,6 +2815,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>4.0533</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2870,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2833,6 +2925,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>3.9789</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2887,6 +2982,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>4.0844</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2939,6 +3037,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3090,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3045,6 +3145,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>3.9473</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3099,6 +3202,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>3.9813</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3151,6 +3257,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3205,6 +3312,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>3.948</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3259,6 +3369,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>4.02</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3311,6 +3424,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3363,6 +3477,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3417,6 +3532,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>3.9606</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3471,6 +3589,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>4.0232</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3523,6 +3644,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3575,6 +3697,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3627,6 +3750,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3681,6 +3805,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>3.87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3860,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3787,6 +3915,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>3.9466</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3839,6 +3970,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3891,6 +4023,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3945,6 +4078,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>3.903</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3997,6 +4133,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4186,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4101,6 +4239,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4153,6 +4292,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4207,6 +4347,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>4.056</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4261,6 +4404,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>3.9247</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4313,6 +4459,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4365,6 +4512,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4417,6 +4565,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4471,6 +4620,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>4.1542</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4675,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4889,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>3.914</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4837,6 +4997,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4891,6 +5052,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>4.1529</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4943,6 +5107,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4995,6 +5160,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5047,6 +5213,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5101,6 +5268,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>4.0105</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5153,6 +5323,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5205,6 +5376,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5257,6 +5429,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5309,6 +5482,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5363,6 +5537,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>4.318</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5415,6 +5592,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5469,6 +5647,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>4.2552</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5521,6 +5702,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5575,6 +5757,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>4.3205</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5629,6 +5814,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>4.2694</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5683,6 +5871,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>4.4381</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5737,6 +5928,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>4.3428</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5789,6 +5983,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5841,6 +6036,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5895,6 +6091,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>4.5063</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5949,6 +6148,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>4.3746</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6003,6 +6205,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>4.5288</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6057,6 +6262,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>4.4405</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6111,6 +6319,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>4.515</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6163,6 +6374,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6217,6 +6429,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>4.4014</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6271,6 +6486,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>4.4464</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6323,6 +6541,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6377,6 +6596,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>4.345</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6653,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>4.4175</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6483,6 +6708,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6537,6 +6763,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>4.2957</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6589,6 +6818,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6641,6 +6871,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6693,6 +6924,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6747,6 +6979,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6799,6 +7034,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6851,6 +7087,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6905,6 +7142,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>4.4269</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6959,6 +7199,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>4.6358</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7011,6 +7254,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7065,6 +7309,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>4.513</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7117,6 +7364,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7169,6 +7417,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7223,6 +7472,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>4.7723</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7275,6 +7527,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7327,6 +7580,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7381,6 +7635,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>4.5758</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7435,6 +7692,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>4.6367</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7489,6 +7749,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>4.5686</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7543,6 +7806,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7597,6 +7863,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>4.6239</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7651,6 +7920,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>4.7194</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7703,6 +7975,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7757,6 +8030,9 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7809,6 +8085,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7861,6 +8138,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7913,6 +8191,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7965,6 +8244,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8017,6 +8297,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8069,6 +8350,7 @@
           <t>SANDUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8122,6 +8404,9 @@
         <is>
           <t>SANDUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>4.98</v>
       </c>
     </row>
   </sheetData>
